--- a/Vocabularies/WY/wy-wrds-hg.xlsx
+++ b/Vocabularies/WY/wy-wrds-hg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\Completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/WY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A0B948-BD46-4876-B08D-689D9BD738A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C03FE0-41DF-994C-BC62-F8F55F2900CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="0" yWindow="1840" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1413">
   <si>
     <t>Term</t>
   </si>
@@ -4264,6 +4264,12 @@
   </si>
   <si>
     <t>Water Equivalent of Snow</t>
+  </si>
+  <si>
+    <t>Legal and Regulatory</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -4664,19 +4670,19 @@
   <dimension ref="A1:I691"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A674" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D681" sqref="D681"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="2" customWidth="1"/>
-    <col min="4" max="9" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4705,7 +4711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -4738,7 +4744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -4749,7 +4755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -4782,7 +4788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -4815,7 +4821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>162</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -4837,7 +4843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>802</v>
       </c>
@@ -4848,7 +4854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>164</v>
       </c>
@@ -4859,7 +4865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>165</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -4914,7 +4920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>173</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -4975,7 +4981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>176</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -5022,7 +5028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>179</v>
       </c>
@@ -5033,10 +5039,10 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -5050,7 +5056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>181</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>182</v>
       </c>
@@ -5072,7 +5078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>183</v>
       </c>
@@ -5083,7 +5089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -5094,7 +5100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>186</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -5141,7 +5147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -5152,7 +5158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>190</v>
       </c>
@@ -5166,7 +5172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>191</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>192</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>193</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>194</v>
       </c>
@@ -5222,7 +5228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>195</v>
       </c>
@@ -5236,7 +5242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>196</v>
       </c>
@@ -5250,7 +5256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>197</v>
       </c>
@@ -5264,7 +5270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>199</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -5303,7 +5309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>803</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -5331,7 +5337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>203</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -5382,7 +5388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -5399,7 +5405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1400</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>206</v>
       </c>
@@ -5421,7 +5427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>208</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>209</v>
       </c>
@@ -5454,7 +5460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>210</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -5476,7 +5482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>212</v>
       </c>
@@ -5490,7 +5496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>213</v>
       </c>
@@ -5504,7 +5510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -5518,7 +5524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -5529,7 +5535,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>216</v>
       </c>
@@ -5543,7 +5549,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>809</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>810</v>
       </c>
@@ -5565,7 +5571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>811</v>
       </c>
@@ -5579,7 +5585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>217</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -5610,7 +5616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -5627,7 +5633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>220</v>
       </c>
@@ -5638,7 +5644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>221</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -5660,7 +5666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>223</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -5699,7 +5705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>226</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>814</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>227</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>228</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>229</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>230</v>
       </c>
@@ -5768,7 +5774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>231</v>
       </c>
@@ -5779,7 +5785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>232</v>
       </c>
@@ -5790,7 +5796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>233</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -5812,7 +5818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>235</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>236</v>
       </c>
@@ -5837,7 +5843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>815</v>
       </c>
@@ -5848,7 +5854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>816</v>
       </c>
@@ -5862,7 +5868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>237</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>238</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>239</v>
       </c>
@@ -5895,7 +5901,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>240</v>
       </c>
@@ -5906,7 +5912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>241</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>242</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>243</v>
       </c>
@@ -5945,7 +5951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>244</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>245</v>
       </c>
@@ -5967,7 +5973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>246</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>247</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>248</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>249</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>817</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>250</v>
       </c>
@@ -6039,7 +6045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -6053,7 +6059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>252</v>
       </c>
@@ -6067,7 +6073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>819</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>253</v>
       </c>
@@ -6092,7 +6098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>254</v>
       </c>
@@ -6106,7 +6112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>255</v>
       </c>
@@ -6117,7 +6123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>256</v>
       </c>
@@ -6128,7 +6134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>257</v>
       </c>
@@ -6139,7 +6145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>258</v>
       </c>
@@ -6153,7 +6159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>259</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>260</v>
       </c>
@@ -6175,7 +6181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>261</v>
       </c>
@@ -6186,7 +6192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>263</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>264</v>
       </c>
@@ -6222,7 +6228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>265</v>
       </c>
@@ -6233,7 +6239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -6247,7 +6253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>267</v>
       </c>
@@ -6258,7 +6264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>268</v>
       </c>
@@ -6269,7 +6275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>269</v>
       </c>
@@ -6280,7 +6286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>270</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>271</v>
       </c>
@@ -6302,7 +6308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -6313,7 +6319,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>273</v>
       </c>
@@ -6327,7 +6333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>274</v>
       </c>
@@ -6341,7 +6347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>275</v>
       </c>
@@ -6355,7 +6361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>276</v>
       </c>
@@ -6369,7 +6375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>277</v>
       </c>
@@ -6383,7 +6389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>278</v>
       </c>
@@ -6397,7 +6403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -6408,7 +6414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>281</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -6441,7 +6447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>283</v>
       </c>
@@ -6452,7 +6458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>284</v>
       </c>
@@ -6469,7 +6475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>798</v>
       </c>
@@ -6486,7 +6492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>799</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>800</v>
       </c>
@@ -6520,7 +6526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>285</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>286</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>287</v>
       </c>
@@ -6568,7 +6574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>820</v>
       </c>
@@ -6579,7 +6585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>288</v>
       </c>
@@ -6590,7 +6596,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>289</v>
       </c>
@@ -6601,7 +6607,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>290</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>291</v>
       </c>
@@ -6623,7 +6629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>292</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>293</v>
       </c>
@@ -6645,7 +6651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>294</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>295</v>
       </c>
@@ -6667,7 +6673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>296</v>
       </c>
@@ -6678,7 +6684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>297</v>
       </c>
@@ -6692,7 +6698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>298</v>
       </c>
@@ -6703,7 +6709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>299</v>
       </c>
@@ -6714,7 +6720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>300</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>301</v>
       </c>
@@ -6736,7 +6742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>302</v>
       </c>
@@ -6750,7 +6756,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>303</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>821</v>
       </c>
@@ -6775,7 +6781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>304</v>
       </c>
@@ -6789,7 +6795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>305</v>
       </c>
@@ -6803,7 +6809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>306</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>307</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>308</v>
       </c>
@@ -6839,7 +6845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>309</v>
       </c>
@@ -6853,7 +6859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>310</v>
       </c>
@@ -6867,7 +6873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>311</v>
       </c>
@@ -6881,7 +6887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>312</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>313</v>
       </c>
@@ -6903,7 +6909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>314</v>
       </c>
@@ -6914,7 +6920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>315</v>
       </c>
@@ -6925,7 +6931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>316</v>
       </c>
@@ -6939,7 +6945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>317</v>
       </c>
@@ -6953,7 +6959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>318</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>319</v>
       </c>
@@ -6990,7 +6996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>320</v>
       </c>
@@ -7010,7 +7016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>321</v>
       </c>
@@ -7024,7 +7030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>322</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>323</v>
       </c>
@@ -7049,7 +7055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>324</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>325</v>
       </c>
@@ -7074,7 +7080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>326</v>
       </c>
@@ -7085,7 +7091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>327</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>328</v>
       </c>
@@ -7107,7 +7113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1401</v>
       </c>
@@ -7121,7 +7127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>329</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>330</v>
       </c>
@@ -7146,7 +7152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>331</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>332</v>
       </c>
@@ -7171,7 +7177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>333</v>
       </c>
@@ -7185,7 +7191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>334</v>
       </c>
@@ -7199,7 +7205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>335</v>
       </c>
@@ -7213,7 +7219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>336</v>
       </c>
@@ -7227,7 +7233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>337</v>
       </c>
@@ -7241,7 +7247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>338</v>
       </c>
@@ -7252,7 +7258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>339</v>
       </c>
@@ -7263,7 +7269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>340</v>
       </c>
@@ -7274,7 +7280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>341</v>
       </c>
@@ -7285,7 +7291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>342</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>343</v>
       </c>
@@ -7307,7 +7313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>344</v>
       </c>
@@ -7321,7 +7327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>345</v>
       </c>
@@ -7332,7 +7338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>346</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>347</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>348</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>349</v>
       </c>
@@ -7382,7 +7388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>350</v>
       </c>
@@ -7393,7 +7399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>351</v>
       </c>
@@ -7407,7 +7413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>352</v>
       </c>
@@ -7421,7 +7427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>353</v>
       </c>
@@ -7435,7 +7441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>354</v>
       </c>
@@ -7446,7 +7452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>355</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>356</v>
       </c>
@@ -7474,7 +7480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>357</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>358</v>
       </c>
@@ -7499,7 +7505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>359</v>
       </c>
@@ -7510,7 +7516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>360</v>
       </c>
@@ -7521,7 +7527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>361</v>
       </c>
@@ -7532,7 +7538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>362</v>
       </c>
@@ -7543,7 +7549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>363</v>
       </c>
@@ -7554,7 +7560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>364</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>365</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1402</v>
       </c>
@@ -7593,7 +7599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>366</v>
       </c>
@@ -7607,7 +7613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>367</v>
       </c>
@@ -7621,7 +7627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>368</v>
       </c>
@@ -7632,7 +7638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>369</v>
       </c>
@@ -7646,7 +7652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>370</v>
       </c>
@@ -7657,7 +7663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>371</v>
       </c>
@@ -7668,7 +7674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>372</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>373</v>
       </c>
@@ -7690,7 +7696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>374</v>
       </c>
@@ -7701,7 +7707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>375</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>376</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>377</v>
       </c>
@@ -7737,7 +7743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>378</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>379</v>
       </c>
@@ -7765,7 +7771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>380</v>
       </c>
@@ -7779,7 +7785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>381</v>
       </c>
@@ -7790,7 +7796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>382</v>
       </c>
@@ -7801,7 +7807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>383</v>
       </c>
@@ -7815,7 +7821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>384</v>
       </c>
@@ -7829,7 +7835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>385</v>
       </c>
@@ -7843,7 +7849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>386</v>
       </c>
@@ -7857,7 +7863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>387</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>388</v>
       </c>
@@ -7885,7 +7891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>389</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>390</v>
       </c>
@@ -7910,7 +7916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>391</v>
       </c>
@@ -7921,7 +7927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>392</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>393</v>
       </c>
@@ -7949,7 +7955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>394</v>
       </c>
@@ -7966,7 +7972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>395</v>
       </c>
@@ -7980,7 +7986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>396</v>
       </c>
@@ -7991,7 +7997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>397</v>
       </c>
@@ -8002,7 +8008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>398</v>
       </c>
@@ -8013,7 +8019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>399</v>
       </c>
@@ -8024,7 +8030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>400</v>
       </c>
@@ -8038,7 +8044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>401</v>
       </c>
@@ -8052,7 +8058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>402</v>
       </c>
@@ -8066,7 +8072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>403</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1381</v>
       </c>
@@ -8088,7 +8094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>404</v>
       </c>
@@ -8099,7 +8105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>405</v>
       </c>
@@ -8110,7 +8116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>406</v>
       </c>
@@ -8121,7 +8127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>407</v>
       </c>
@@ -8135,7 +8141,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>408</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>409</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>410</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>411</v>
       </c>
@@ -8179,7 +8185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1383</v>
       </c>
@@ -8193,7 +8199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>412</v>
       </c>
@@ -8204,7 +8210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>413</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>414</v>
       </c>
@@ -8229,7 +8235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>415</v>
       </c>
@@ -8243,7 +8249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>416</v>
       </c>
@@ -8254,7 +8260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>417</v>
       </c>
@@ -8265,7 +8271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>418</v>
       </c>
@@ -8276,7 +8282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>419</v>
       </c>
@@ -8290,7 +8296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>420</v>
       </c>
@@ -8301,7 +8307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>421</v>
       </c>
@@ -8312,7 +8318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>422</v>
       </c>
@@ -8326,7 +8332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -8337,7 +8343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>423</v>
       </c>
@@ -8348,7 +8354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>424</v>
       </c>
@@ -8359,7 +8365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>425</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>426</v>
       </c>
@@ -8381,7 +8387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>427</v>
       </c>
@@ -8392,7 +8398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>428</v>
       </c>
@@ -8403,7 +8409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>429</v>
       </c>
@@ -8417,7 +8423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>430</v>
       </c>
@@ -8428,7 +8434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>431</v>
       </c>
@@ -8439,7 +8445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>432</v>
       </c>
@@ -8450,7 +8456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>433</v>
       </c>
@@ -8461,7 +8467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>434</v>
       </c>
@@ -8475,7 +8481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>435</v>
       </c>
@@ -8486,7 +8492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>436</v>
       </c>
@@ -8500,7 +8506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>437</v>
       </c>
@@ -8511,7 +8517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>438</v>
       </c>
@@ -8522,7 +8528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>439</v>
       </c>
@@ -8533,7 +8539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>440</v>
       </c>
@@ -8544,7 +8550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>441</v>
       </c>
@@ -8555,7 +8561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>442</v>
       </c>
@@ -8569,7 +8575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>443</v>
       </c>
@@ -8580,7 +8586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>444</v>
       </c>
@@ -8591,7 +8597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>445</v>
       </c>
@@ -8605,7 +8611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>446</v>
       </c>
@@ -8619,7 +8625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>447</v>
       </c>
@@ -8633,7 +8639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>448</v>
       </c>
@@ -8644,7 +8650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>449</v>
       </c>
@@ -8655,7 +8661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>450</v>
       </c>
@@ -8669,7 +8675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>451</v>
       </c>
@@ -8680,7 +8686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>452</v>
       </c>
@@ -8691,7 +8697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>453</v>
       </c>
@@ -8705,7 +8711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1384</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>454</v>
       </c>
@@ -8733,7 +8739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>455</v>
       </c>
@@ -8744,7 +8750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>456</v>
       </c>
@@ -8755,7 +8761,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>457</v>
       </c>
@@ -8766,7 +8772,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>458</v>
       </c>
@@ -8780,7 +8786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>459</v>
       </c>
@@ -8791,7 +8797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>460</v>
       </c>
@@ -8805,7 +8811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>461</v>
       </c>
@@ -8819,7 +8825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>462</v>
       </c>
@@ -8833,7 +8839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>463</v>
       </c>
@@ -8847,7 +8853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>464</v>
       </c>
@@ -8861,7 +8867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>465</v>
       </c>
@@ -8875,7 +8881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>466</v>
       </c>
@@ -8886,7 +8892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>467</v>
       </c>
@@ -8897,7 +8903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>468</v>
       </c>
@@ -8911,7 +8917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>469</v>
       </c>
@@ -8922,7 +8928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>470</v>
       </c>
@@ -8936,7 +8942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>471</v>
       </c>
@@ -8947,7 +8953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>472</v>
       </c>
@@ -8958,7 +8964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>473</v>
       </c>
@@ -8972,7 +8978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>474</v>
       </c>
@@ -8986,7 +8992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1385</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>475</v>
       </c>
@@ -9014,7 +9020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>476</v>
       </c>
@@ -9028,7 +9034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>477</v>
       </c>
@@ -9042,7 +9048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>478</v>
       </c>
@@ -9056,7 +9062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>479</v>
       </c>
@@ -9070,7 +9076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>480</v>
       </c>
@@ -9084,7 +9090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>481</v>
       </c>
@@ -9095,7 +9101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>482</v>
       </c>
@@ -9106,7 +9112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>483</v>
       </c>
@@ -9117,7 +9123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>484</v>
       </c>
@@ -9128,7 +9134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>485</v>
       </c>
@@ -9139,7 +9145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>486</v>
       </c>
@@ -9153,7 +9159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>487</v>
       </c>
@@ -9164,7 +9170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>488</v>
       </c>
@@ -9178,7 +9184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>489</v>
       </c>
@@ -9189,7 +9195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>490</v>
       </c>
@@ -9200,7 +9206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>491</v>
       </c>
@@ -9211,7 +9217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>492</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>493</v>
       </c>
@@ -9233,7 +9239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>494</v>
       </c>
@@ -9244,7 +9250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>495</v>
       </c>
@@ -9258,7 +9264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>496</v>
       </c>
@@ -9272,7 +9278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>497</v>
       </c>
@@ -9286,7 +9292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>498</v>
       </c>
@@ -9300,7 +9306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>499</v>
       </c>
@@ -9314,7 +9320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>500</v>
       </c>
@@ -9328,7 +9334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>501</v>
       </c>
@@ -9339,7 +9345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>502</v>
       </c>
@@ -9350,7 +9356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>503</v>
       </c>
@@ -9364,7 +9370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>504</v>
       </c>
@@ -9375,7 +9381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>505</v>
       </c>
@@ -9386,7 +9392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>506</v>
       </c>
@@ -9397,7 +9403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>507</v>
       </c>
@@ -9408,7 +9414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>508</v>
       </c>
@@ -9419,7 +9425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>509</v>
       </c>
@@ -9433,7 +9439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>510</v>
       </c>
@@ -9447,7 +9453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>511</v>
       </c>
@@ -9458,7 +9464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>512</v>
       </c>
@@ -9469,7 +9475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>513</v>
       </c>
@@ -9483,7 +9489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>514</v>
       </c>
@@ -9494,7 +9500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>515</v>
       </c>
@@ -9505,7 +9511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>516</v>
       </c>
@@ -9516,7 +9522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>517</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>518</v>
       </c>
@@ -9541,7 +9547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>519</v>
       </c>
@@ -9552,7 +9558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>520</v>
       </c>
@@ -9566,7 +9572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>521</v>
       </c>
@@ -9577,7 +9583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1403</v>
       </c>
@@ -9588,7 +9594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>522</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>523</v>
       </c>
@@ -9613,7 +9619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1404</v>
       </c>
@@ -9627,7 +9633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>524</v>
       </c>
@@ -9641,7 +9647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>525</v>
       </c>
@@ -9658,7 +9664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>526</v>
       </c>
@@ -9669,7 +9675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>527</v>
       </c>
@@ -9680,7 +9686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>528</v>
       </c>
@@ -9691,7 +9697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>529</v>
       </c>
@@ -9702,7 +9708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>530</v>
       </c>
@@ -9713,7 +9719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>531</v>
       </c>
@@ -9724,7 +9730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>532</v>
       </c>
@@ -9738,7 +9744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>533</v>
       </c>
@@ -9749,7 +9755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>534</v>
       </c>
@@ -9760,7 +9766,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>535</v>
       </c>
@@ -9771,7 +9777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>536</v>
       </c>
@@ -9782,7 +9788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>537</v>
       </c>
@@ -9793,7 +9799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>538</v>
       </c>
@@ -9804,7 +9810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>539</v>
       </c>
@@ -9818,7 +9824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>540</v>
       </c>
@@ -9832,7 +9838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>541</v>
       </c>
@@ -9846,7 +9852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>542</v>
       </c>
@@ -9860,7 +9866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>543</v>
       </c>
@@ -9874,7 +9880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>544</v>
       </c>
@@ -9888,7 +9894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>545</v>
       </c>
@@ -9902,7 +9908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>546</v>
       </c>
@@ -9913,7 +9919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>547</v>
       </c>
@@ -9924,7 +9930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>548</v>
       </c>
@@ -9938,7 +9944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>549</v>
       </c>
@@ -9949,7 +9955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>550</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>551</v>
       </c>
@@ -9971,7 +9977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>416</v>
       </c>
@@ -9985,7 +9991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>552</v>
       </c>
@@ -9996,7 +10002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>553</v>
       </c>
@@ -10007,7 +10013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>554</v>
       </c>
@@ -10021,7 +10027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>555</v>
       </c>
@@ -10032,7 +10038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>556</v>
       </c>
@@ -10043,7 +10049,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>557</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>558</v>
       </c>
@@ -10068,7 +10074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>559</v>
       </c>
@@ -10079,7 +10085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>560</v>
       </c>
@@ -10093,7 +10099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>561</v>
       </c>
@@ -10107,7 +10113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>562</v>
       </c>
@@ -10118,7 +10124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>563</v>
       </c>
@@ -10129,7 +10135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>564</v>
       </c>
@@ -10143,7 +10149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>565</v>
       </c>
@@ -10154,7 +10160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>566</v>
       </c>
@@ -10165,7 +10171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>567</v>
       </c>
@@ -10176,7 +10182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>568</v>
       </c>
@@ -10190,7 +10196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>569</v>
       </c>
@@ -10201,7 +10207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>570</v>
       </c>
@@ -10212,7 +10218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>571</v>
       </c>
@@ -10223,7 +10229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>572</v>
       </c>
@@ -10234,7 +10240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>573</v>
       </c>
@@ -10245,7 +10251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>574</v>
       </c>
@@ -10256,7 +10262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>575</v>
       </c>
@@ -10270,7 +10276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>576</v>
       </c>
@@ -10281,7 +10287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>577</v>
       </c>
@@ -10292,7 +10298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>578</v>
       </c>
@@ -10306,7 +10312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>579</v>
       </c>
@@ -10320,7 +10326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>580</v>
       </c>
@@ -10331,7 +10337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>581</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>582</v>
       </c>
@@ -10356,7 +10362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>583</v>
       </c>
@@ -10370,7 +10376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>584</v>
       </c>
@@ -10384,7 +10390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>585</v>
       </c>
@@ -10398,7 +10404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>586</v>
       </c>
@@ -10412,7 +10418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>587</v>
       </c>
@@ -10423,7 +10429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>588</v>
       </c>
@@ -10434,7 +10440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>589</v>
       </c>
@@ -10445,7 +10451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>590</v>
       </c>
@@ -10456,7 +10462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>591</v>
       </c>
@@ -10467,7 +10473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>592</v>
       </c>
@@ -10478,7 +10484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>593</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>594</v>
       </c>
@@ -10500,7 +10506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1405</v>
       </c>
@@ -10511,7 +10517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>595</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>596</v>
       </c>
@@ -10539,7 +10545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>597</v>
       </c>
@@ -10550,7 +10556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>598</v>
       </c>
@@ -10561,7 +10567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>599</v>
       </c>
@@ -10572,7 +10578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>600</v>
       </c>
@@ -10583,7 +10589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>601</v>
       </c>
@@ -10594,7 +10600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>602</v>
       </c>
@@ -10605,7 +10611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>603</v>
       </c>
@@ -10619,7 +10625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>604</v>
       </c>
@@ -10630,7 +10636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>605</v>
       </c>
@@ -10641,7 +10647,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>606</v>
       </c>
@@ -10652,7 +10658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>607</v>
       </c>
@@ -10663,7 +10669,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>608</v>
       </c>
@@ -10674,7 +10680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>609</v>
       </c>
@@ -10685,7 +10691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>610</v>
       </c>
@@ -10699,7 +10705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>611</v>
       </c>
@@ -10710,7 +10716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>612</v>
       </c>
@@ -10724,7 +10730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>613</v>
       </c>
@@ -10735,7 +10741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>614</v>
       </c>
@@ -10749,7 +10755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>615</v>
       </c>
@@ -10760,7 +10766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>616</v>
       </c>
@@ -10771,7 +10777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>617</v>
       </c>
@@ -10782,7 +10788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1406</v>
       </c>
@@ -10796,7 +10802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>618</v>
       </c>
@@ -10807,7 +10813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>619</v>
       </c>
@@ -10821,7 +10827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>620</v>
       </c>
@@ -10832,7 +10838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>621</v>
       </c>
@@ -10843,7 +10849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>622</v>
       </c>
@@ -10857,7 +10863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>623</v>
       </c>
@@ -10871,7 +10877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>624</v>
       </c>
@@ -10885,7 +10891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>625</v>
       </c>
@@ -10899,7 +10905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>626</v>
       </c>
@@ -10910,7 +10916,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>627</v>
       </c>
@@ -10921,7 +10927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>628</v>
       </c>
@@ -10932,7 +10938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>629</v>
       </c>
@@ -10946,7 +10952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>630</v>
       </c>
@@ -10957,7 +10963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>631</v>
       </c>
@@ -10968,7 +10974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>632</v>
       </c>
@@ -10979,7 +10985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>633</v>
       </c>
@@ -10990,7 +10996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>634</v>
       </c>
@@ -11001,7 +11007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>635</v>
       </c>
@@ -11012,7 +11018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>636</v>
       </c>
@@ -11023,7 +11029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>637</v>
       </c>
@@ -11034,7 +11040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>638</v>
       </c>
@@ -11045,7 +11051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>639</v>
       </c>
@@ -11056,7 +11062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>640</v>
       </c>
@@ -11067,7 +11073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>641</v>
       </c>
@@ -11081,7 +11087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>642</v>
       </c>
@@ -11095,7 +11101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>643</v>
       </c>
@@ -11109,7 +11115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>644</v>
       </c>
@@ -11123,7 +11129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>645</v>
       </c>
@@ -11137,7 +11143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>646</v>
       </c>
@@ -11151,7 +11157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>647</v>
       </c>
@@ -11162,7 +11168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>648</v>
       </c>
@@ -11173,7 +11179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>649</v>
       </c>
@@ -11184,7 +11190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>650</v>
       </c>
@@ -11195,7 +11201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>651</v>
       </c>
@@ -11206,7 +11212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>652</v>
       </c>
@@ -11217,7 +11223,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>653</v>
       </c>
@@ -11228,7 +11234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>654</v>
       </c>
@@ -11239,7 +11245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>655</v>
       </c>
@@ -11253,7 +11259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>656</v>
       </c>
@@ -11264,7 +11270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>657</v>
       </c>
@@ -11275,7 +11281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1387</v>
       </c>
@@ -11286,7 +11292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>658</v>
       </c>
@@ -11300,7 +11306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>659</v>
       </c>
@@ -11311,7 +11317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>660</v>
       </c>
@@ -11325,7 +11331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>661</v>
       </c>
@@ -11339,7 +11345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>662</v>
       </c>
@@ -11353,7 +11359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>663</v>
       </c>
@@ -11364,7 +11370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>664</v>
       </c>
@@ -11375,7 +11381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>665</v>
       </c>
@@ -11389,7 +11395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1388</v>
       </c>
@@ -11403,7 +11409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>1389</v>
       </c>
@@ -11417,7 +11423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>666</v>
       </c>
@@ -11431,7 +11437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>667</v>
       </c>
@@ -11445,7 +11451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>668</v>
       </c>
@@ -11459,7 +11465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>669</v>
       </c>
@@ -11473,7 +11479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>670</v>
       </c>
@@ -11487,7 +11493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>671</v>
       </c>
@@ -11498,7 +11504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>672</v>
       </c>
@@ -11509,7 +11515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>673</v>
       </c>
@@ -11520,7 +11526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>1390</v>
       </c>
@@ -11534,7 +11540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>674</v>
       </c>
@@ -11548,7 +11554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>1393</v>
       </c>
@@ -11562,7 +11568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>675</v>
       </c>
@@ -11573,7 +11579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>676</v>
       </c>
@@ -11584,7 +11590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1391</v>
       </c>
@@ -11598,7 +11604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>1392</v>
       </c>
@@ -11612,7 +11618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>677</v>
       </c>
@@ -11626,7 +11632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>678</v>
       </c>
@@ -11637,7 +11643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>679</v>
       </c>
@@ -11648,7 +11654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>680</v>
       </c>
@@ -11659,7 +11665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>681</v>
       </c>
@@ -11670,7 +11676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>682</v>
       </c>
@@ -11681,7 +11687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>683</v>
       </c>
@@ -11695,7 +11701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>684</v>
       </c>
@@ -11706,7 +11712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1394</v>
       </c>
@@ -11717,7 +11723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>685</v>
       </c>
@@ -11728,7 +11734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>686</v>
       </c>
@@ -11742,7 +11748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>687</v>
       </c>
@@ -11753,7 +11759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>688</v>
       </c>
@@ -11767,7 +11773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>689</v>
       </c>
@@ -11778,7 +11784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>690</v>
       </c>
@@ -11792,7 +11798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>691</v>
       </c>
@@ -11806,7 +11812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>692</v>
       </c>
@@ -11820,7 +11826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>693</v>
       </c>
@@ -11834,7 +11840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>694</v>
       </c>
@@ -11848,7 +11854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>695</v>
       </c>
@@ -11862,7 +11868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>696</v>
       </c>
@@ -11873,7 +11879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>697</v>
       </c>
@@ -11884,7 +11890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>698</v>
       </c>
@@ -11898,7 +11904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>699</v>
       </c>
@@ -11912,7 +11918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>700</v>
       </c>
@@ -11926,7 +11932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>791</v>
       </c>
@@ -11940,7 +11946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1407</v>
       </c>
@@ -11954,7 +11960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>792</v>
       </c>
@@ -11968,7 +11974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>793</v>
       </c>
@@ -11982,7 +11988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>794</v>
       </c>
@@ -11996,7 +12002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>795</v>
       </c>
@@ -12010,7 +12016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>796</v>
       </c>
@@ -12024,7 +12030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>797</v>
       </c>
@@ -12035,7 +12041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>701</v>
       </c>
@@ -12046,7 +12052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>702</v>
       </c>
@@ -12060,7 +12066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>703</v>
       </c>
@@ -12074,7 +12080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>704</v>
       </c>
@@ -12085,7 +12091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>705</v>
       </c>
@@ -12096,7 +12102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>706</v>
       </c>
@@ -12107,7 +12113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>707</v>
       </c>
@@ -12118,7 +12124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>708</v>
       </c>
@@ -12129,7 +12135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>709</v>
       </c>
@@ -12143,7 +12149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>710</v>
       </c>
@@ -12157,7 +12163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>711</v>
       </c>
@@ -12168,7 +12174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>712</v>
       </c>
@@ -12182,7 +12188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>713</v>
       </c>
@@ -12196,7 +12202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1396</v>
       </c>
@@ -12213,7 +12219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>714</v>
       </c>
@@ -12227,7 +12233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>715</v>
       </c>
@@ -12241,7 +12247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>716</v>
       </c>
@@ -12255,7 +12261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>717</v>
       </c>
@@ -12266,7 +12272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>718</v>
       </c>
@@ -12277,7 +12283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>719</v>
       </c>
@@ -12288,7 +12294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>720</v>
       </c>
@@ -12302,7 +12308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>721</v>
       </c>
@@ -12313,7 +12319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>722</v>
       </c>
@@ -12327,7 +12333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>723</v>
       </c>
@@ -12338,7 +12344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>724</v>
       </c>
@@ -12352,7 +12358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>725</v>
       </c>
@@ -12363,7 +12369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>726</v>
       </c>
@@ -12377,7 +12383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>1397</v>
       </c>
@@ -12388,7 +12394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>727</v>
       </c>
@@ -12399,7 +12405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>728</v>
       </c>
@@ -12410,7 +12416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>729</v>
       </c>
@@ -12424,7 +12430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>1408</v>
       </c>
@@ -12435,7 +12441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>730</v>
       </c>
@@ -12449,7 +12455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>731</v>
       </c>
@@ -12463,7 +12469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>732</v>
       </c>
@@ -12474,7 +12480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>733</v>
       </c>
@@ -12488,7 +12494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>734</v>
       </c>
@@ -12499,7 +12505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>735</v>
       </c>
@@ -12513,7 +12519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>736</v>
       </c>
@@ -12527,7 +12533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>737</v>
       </c>
@@ -12538,7 +12544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>738</v>
       </c>
@@ -12549,7 +12555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>739</v>
       </c>
@@ -12560,7 +12566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>740</v>
       </c>
@@ -12571,7 +12577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>741</v>
       </c>
@@ -12582,7 +12588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>742</v>
       </c>
@@ -12593,7 +12599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>743</v>
       </c>
@@ -12607,7 +12613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>744</v>
       </c>
@@ -12621,7 +12627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>745</v>
       </c>
@@ -12635,7 +12641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>746</v>
       </c>
@@ -12646,7 +12652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>747</v>
       </c>
@@ -12657,7 +12663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>748</v>
       </c>
@@ -12668,7 +12674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>749</v>
       </c>
@@ -12679,7 +12685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>750</v>
       </c>
@@ -12690,7 +12696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>751</v>
       </c>
@@ -12701,7 +12707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>752</v>
       </c>
@@ -12712,7 +12718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>753</v>
       </c>
@@ -12726,7 +12732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>754</v>
       </c>
@@ -12740,7 +12746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>755</v>
       </c>
@@ -12754,7 +12760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>756</v>
       </c>
@@ -12765,7 +12771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>757</v>
       </c>
@@ -12779,7 +12785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>758</v>
       </c>
@@ -12790,7 +12796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>759</v>
       </c>
@@ -12804,7 +12810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>760</v>
       </c>
@@ -12815,7 +12821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>761</v>
       </c>
@@ -12826,7 +12832,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>1409</v>
       </c>
@@ -12837,7 +12843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>762</v>
       </c>
@@ -12848,7 +12854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>1410</v>
       </c>
@@ -12859,7 +12865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>763</v>
       </c>
@@ -12870,7 +12876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>764</v>
       </c>
@@ -12881,7 +12887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>12</v>
       </c>
@@ -12892,7 +12898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>765</v>
       </c>
@@ -12903,7 +12909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>766</v>
       </c>
@@ -12914,7 +12920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>767</v>
       </c>
@@ -12925,7 +12931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>768</v>
       </c>
@@ -12936,7 +12942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>769</v>
       </c>
@@ -12950,7 +12956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>770</v>
       </c>
@@ -12964,7 +12970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>1399</v>
       </c>
@@ -12978,7 +12984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>771</v>
       </c>
@@ -12989,7 +12995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>772</v>
       </c>
@@ -13000,7 +13006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>773</v>
       </c>
@@ -13011,7 +13017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>774</v>
       </c>
@@ -13022,7 +13028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>775</v>
       </c>
@@ -13036,7 +13042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>776</v>
       </c>
@@ -13047,7 +13053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>777</v>
       </c>
@@ -13061,7 +13067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>778</v>
       </c>
@@ -13072,7 +13078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>779</v>
       </c>
@@ -13083,7 +13089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>780</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>781</v>
       </c>
@@ -13105,7 +13111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>782</v>
       </c>
@@ -13116,7 +13122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>783</v>
       </c>
@@ -13127,7 +13133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>784</v>
       </c>
@@ -13138,7 +13144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>785</v>
       </c>
@@ -13149,7 +13155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>786</v>
       </c>
@@ -13160,7 +13166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>787</v>
       </c>
@@ -13171,7 +13177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>788</v>
       </c>
@@ -13185,7 +13191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>789</v>
       </c>
@@ -13199,7 +13205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>790</v>
       </c>
@@ -13236,21 +13242,21 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -13276,7 +13282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -13296,10 +13302,10 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
         <v>18</v>
       </c>
@@ -13307,7 +13313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -13315,20 +13321,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>19</v>
+        <v>1411</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>26</v>
       </c>
@@ -13336,12 +13342,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>21</v>
       </c>
